--- a/LAS 1.4 R15.xlsx
+++ b/LAS 1.4 R15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\westjoh\PhD\tools\LasZip.Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F35C0B-D7F9-4D7F-AAE5-B6F5D3C3CA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBED193-382C-4002-B239-1A137A52F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="1548" windowWidth="17496" windowHeight="9648" xr2:uid="{A2D2B577-1DB7-42E9-A231-71C6A8BC254F}"/>
+    <workbookView xWindow="1440" yWindow="2244" windowWidth="17496" windowHeight="9648" activeTab="1" xr2:uid="{A2D2B577-1DB7-42E9-A231-71C6A8BC254F}"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="130">
   <si>
     <t>File Signature (“LASF”)</t>
   </si>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t>record signature (0xAABB) in LAS 1.0, reserved in LAS 1.1+</t>
+  </si>
+  <si>
+    <t>offset, bytes</t>
+  </si>
+  <si>
+    <t>extended offset, bytes</t>
+  </si>
+  <si>
+    <t>UInt64 in extended variable length records (LAS 1.4+)</t>
+  </si>
+  <si>
+    <t>VLR offset, bytes</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -476,6 +488,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,11 +803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549BCA4E-9F9C-4697-910D-77D85F128E48}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,9 +817,11 @@
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -823,10 +838,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -842,11 +863,14 @@
       <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -862,11 +886,15 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <f>F2+E2</f>
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -882,11 +910,15 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <f t="shared" ref="F4:F38" si="0">F3+E3</f>
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -902,11 +934,15 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -922,11 +958,15 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -942,11 +982,15 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -962,11 +1006,15 @@
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -982,11 +1030,15 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1002,11 +1054,15 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1022,11 +1078,15 @@
       <c r="E11">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1042,11 +1102,15 @@
       <c r="E12">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -1062,11 +1126,15 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1082,11 +1150,15 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1102,11 +1174,15 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1122,11 +1198,15 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1142,11 +1222,15 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1162,11 +1246,15 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1182,11 +1270,15 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1202,11 +1294,15 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1223,11 +1319,15 @@
         <f>5*4</f>
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1243,11 +1343,15 @@
       <c r="E22">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1263,11 +1367,15 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1283,11 +1391,15 @@
       <c r="E24">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1303,11 +1415,15 @@
       <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1323,11 +1439,15 @@
       <c r="E26">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1343,11 +1463,15 @@
       <c r="E27">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1363,11 +1487,15 @@
       <c r="E28">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1383,11 +1511,15 @@
       <c r="E29">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1403,11 +1535,15 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1423,11 +1559,15 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1443,11 +1583,15 @@
       <c r="E32">
         <v>8</v>
       </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1463,11 +1607,15 @@
       <c r="E33">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1483,11 +1631,18 @@
       <c r="E34">
         <v>8</v>
       </c>
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1503,11 +1658,19 @@
       <c r="E35">
         <v>8</v>
       </c>
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="G35">
+        <f>G34+E34</f>
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1523,11 +1686,19 @@
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G38" si="1">G35+E35</f>
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1543,11 +1714,19 @@
       <c r="E37">
         <v>8</v>
       </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1564,7 +1743,15 @@
         <f>15*8</f>
         <v>120</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1576,20 +1763,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7743E6EB-E7D3-442D-AAD4-AADB338037E1}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -1600,49 +1791,55 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1652,8 +1849,8 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1671,20 +1868,20 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
       <c r="O2" t="s">
         <v>2</v>
       </c>
@@ -1694,8 +1891,14 @@
       <c r="Q2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1705,8 +1908,9 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
+      <c r="D3">
+        <f>D2+C2</f>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1724,20 +1928,21 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>61</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3">
+        <f>M2+L2</f>
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
       <c r="O3" t="s">
         <v>2</v>
       </c>
@@ -1747,8 +1952,14 @@
       <c r="Q3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1758,8 +1969,9 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">D3+C3</f>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1777,20 +1989,21 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <f t="shared" ref="M4:M6" si="1">M3+L3</f>
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
       <c r="O4" t="s">
         <v>2</v>
       </c>
@@ -1800,8 +2013,14 @@
       <c r="Q4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1811,8 +2030,9 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>77</v>
@@ -1829,21 +2049,22 @@
       <c r="I5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
         <v>65</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" t="s">
         <v>66</v>
       </c>
@@ -1853,8 +2074,14 @@
       <c r="Q5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1862,8 +2089,9 @@
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -1881,17 +2109,18 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
         <v>67</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>4/8</f>
         <v>0.5</v>
       </c>
-      <c r="M6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2</v>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O6" t="s">
         <v>2</v>
@@ -1902,8 +2131,14 @@
       <c r="Q6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1911,8 +2146,9 @@
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
+      <c r="D7">
+        <f>D6</f>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -1930,17 +2166,18 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>4/8</f>
         <v>0.5</v>
       </c>
-      <c r="M7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
+      <c r="M7">
+        <f>M6</f>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
         <v>2</v>
@@ -1951,20 +2188,24 @@
       <c r="Q7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J8" t="s">
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
         <v>103</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>4/8</f>
         <v>0.5</v>
       </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
+      <c r="M8">
+        <f>M7+1</f>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
         <v>77</v>
@@ -1975,20 +2216,24 @@
       <c r="Q8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J9" t="s">
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
         <v>100</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="M9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" t="s">
-        <v>66</v>
+      <c r="M9">
+        <f>M8</f>
+        <v>15</v>
       </c>
       <c r="O9" t="s">
         <v>66</v>
@@ -1999,8 +2244,14 @@
       <c r="Q9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2008,8 +2259,9 @@
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
+      <c r="D10">
+        <f>D6</f>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2027,17 +2279,18 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="M10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>2</v>
+      <c r="M10">
+        <f>M9</f>
+        <v>15</v>
       </c>
       <c r="O10" t="s">
         <v>2</v>
@@ -2048,8 +2301,14 @@
       <c r="Q10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2057,8 +2316,9 @@
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
+      <c r="D11">
+        <f>D6</f>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -2076,17 +2336,18 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
         <v>70</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="M11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2</v>
+      <c r="M11">
+        <f>M10</f>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
         <v>2</v>
@@ -2097,8 +2358,14 @@
       <c r="Q11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2108,8 +2375,9 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>75</v>
+      <c r="D12">
+        <f>D11+1</f>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -2127,20 +2395,21 @@
         <v>75</v>
       </c>
       <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12">
+        <f>M11+1</f>
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
         <v>25</v>
       </c>
-      <c r="M12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2</v>
-      </c>
       <c r="O12" t="s">
         <v>2</v>
       </c>
@@ -2150,8 +2419,14 @@
       <c r="Q12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -2161,8 +2436,9 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
+      <c r="D13" s="5">
+        <f>D12+C12</f>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -2179,20 +2455,21 @@
       <c r="I13" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13">
+        <f>M12+L12</f>
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
         <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
       </c>
       <c r="O13" t="s">
         <v>77</v>
@@ -2203,8 +2480,14 @@
       <c r="Q13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -2214,8 +2497,9 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:D27" si="2">D13+C13</f>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>77</v>
@@ -2232,21 +2516,22 @@
       <c r="I14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M27" si="3">M13+L13</f>
+        <v>18</v>
+      </c>
+      <c r="N14" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="O14" s="2" t="s">
         <v>2</v>
       </c>
@@ -2256,8 +2541,14 @@
       <c r="Q14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2267,8 +2558,9 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -2286,20 +2578,21 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
         <v>72</v>
       </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2</v>
-      </c>
       <c r="O15" t="s">
         <v>2</v>
       </c>
@@ -2309,8 +2602,14 @@
       <c r="Q15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2320,39 +2619,41 @@
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2</v>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
         <v>76</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>8</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
         <v>35</v>
       </c>
-      <c r="M16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2</v>
-      </c>
       <c r="O16" t="s">
         <v>2</v>
       </c>
@@ -2362,8 +2663,14 @@
       <c r="Q16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2373,50 +2680,58 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F17" t="s">
-        <v>2</v>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2</v>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
         <v>78</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>66</v>
+      <c r="O17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2426,50 +2741,58 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
-        <v>2</v>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2</v>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
         <v>79</v>
       </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>66</v>
+      <c r="O18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
       </c>
       <c r="Q18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2479,67 +2802,73 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F19" t="s">
-        <v>2</v>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2</v>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
         <v>80</v>
       </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>66</v>
+      <c r="O19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
       </c>
       <c r="Q19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
+      <c r="R19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
         <v>104</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" t="s">
-        <v>2</v>
+      <c r="O20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>66</v>
@@ -2547,8 +2876,14 @@
       <c r="Q20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2558,8 +2893,9 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
+      <c r="D21" s="5">
+        <f>D19+C19</f>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>66</v>
@@ -2570,38 +2906,45 @@
       <c r="G21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H21" t="s">
-        <v>2</v>
+      <c r="H21" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
       </c>
       <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
         <v>81</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2611,8 +2954,9 @@
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>66</v>
@@ -2623,38 +2967,45 @@
       <c r="G22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H22" t="s">
-        <v>2</v>
+      <c r="H22" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I22" t="s">
         <v>2</v>
       </c>
       <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
         <v>82</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2664,8 +3015,9 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>66</v>
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>66</v>
@@ -2676,38 +3028,45 @@
       <c r="G23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H23" t="s">
-        <v>2</v>
+      <c r="H23" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I23" t="s">
         <v>2</v>
       </c>
       <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
         <v>83</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="N23" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -2717,8 +3076,9 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>66</v>
@@ -2729,38 +3089,45 @@
       <c r="G24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H24" t="s">
-        <v>2</v>
+      <c r="H24" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
         <v>84</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="N24" t="s">
         <v>85</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2770,8 +3137,9 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>66</v>
@@ -2782,38 +3150,45 @@
       <c r="G25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H25" t="s">
-        <v>2</v>
+      <c r="H25" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I25" t="s">
         <v>2</v>
       </c>
       <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="N25" t="s">
         <v>85</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -2823,8 +3198,9 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>66</v>
@@ -2835,38 +3211,45 @@
       <c r="G26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H26" t="s">
-        <v>2</v>
+      <c r="H26" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I26" t="s">
         <v>2</v>
       </c>
       <c r="J26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
         <v>87</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="N26" t="s">
         <v>85</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -2876,8 +3259,9 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>66</v>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>66</v>
@@ -2888,49 +3272,57 @@
       <c r="G27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H27" t="s">
-        <v>2</v>
+      <c r="H27" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I27" t="s">
         <v>2</v>
       </c>
       <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
         <v>88</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="N27" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P27" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="P27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11683A79-6737-4049-ACAE-35C00E1A4B60}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2939,10 +3331,11 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -2956,10 +3349,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2972,11 +3368,14 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2989,8 +3388,12 @@
       <c r="D3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>E2+D2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3003,8 +3406,12 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="0">E3+D3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3017,8 +3424,15 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -3031,8 +3445,12 @@
       <c r="D6">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -3044,6 +3462,10 @@
       </c>
       <c r="D7" t="s">
         <v>123</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
